--- a/Tower Defense Rubric.xlsx
+++ b/Tower Defense Rubric.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Ma\Bewijzenmap\F2M1\BO\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D12DE3C4-968F-4D66-86BF-50A52F79D693}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81786A8B-195C-40FD-A311-3320602BEE40}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1170" yWindow="1170" windowWidth="21600" windowHeight="11325" xr2:uid="{651B3805-AECB-49F1-9CCF-59E306956D9A}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{651B3805-AECB-49F1-9CCF-59E306956D9A}"/>
   </bookViews>
   <sheets>
     <sheet name="Blad1" sheetId="1" r:id="rId1"/>
@@ -141,7 +141,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -178,15 +178,8 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="6">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -210,11 +203,6 @@
         <fgColor rgb="FFC6EFCE"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-      </patternFill>
-    </fill>
   </fills>
   <borders count="25">
     <border>
@@ -531,12 +519,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -607,9 +594,6 @@
     <xf numFmtId="0" fontId="4" fillId="4" borderId="16" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="19" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="10" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -644,8 +628,7 @@
       <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="3">
-    <cellStyle name="Bad" xfId="2" builtinId="27"/>
+  <cellStyles count="2">
     <cellStyle name="Good" xfId="1" builtinId="26"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
@@ -962,21 +945,21 @@
   <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A3" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.140625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="31.140625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="27.85546875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="31.140625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="9.140625" style="1"/>
-    <col min="6" max="6" width="112.28515625" style="1" customWidth="1"/>
-    <col min="7" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="11.109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="31.109375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="27.88671875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="31.109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="9.109375" style="1"/>
+    <col min="6" max="6" width="112.33203125" style="1" customWidth="1"/>
+    <col min="7" max="16384" width="9.109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="7"/>
       <c r="B1" s="13" t="s">
         <v>0</v>
@@ -994,7 +977,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="60.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" ht="60.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>5</v>
       </c>
@@ -1012,17 +995,17 @@
       </c>
       <c r="F2" s="9"/>
     </row>
-    <row r="3" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
         <v>9</v>
       </c>
       <c r="B3" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="26" t="s">
+      <c r="C3" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="D3" s="25" t="s">
+      <c r="D3" s="24" t="s">
         <v>12</v>
       </c>
       <c r="E3" s="16">
@@ -1030,17 +1013,17 @@
       </c>
       <c r="F3" s="10"/>
     </row>
-    <row r="4" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A4" s="5" t="s">
         <v>13</v>
       </c>
       <c r="B4" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="C4" s="26" t="s">
+      <c r="C4" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="D4" s="25" t="s">
+      <c r="D4" s="24" t="s">
         <v>16</v>
       </c>
       <c r="E4" s="16">
@@ -1048,17 +1031,17 @@
       </c>
       <c r="F4" s="10"/>
     </row>
-    <row r="5" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" ht="72" x14ac:dyDescent="0.3">
       <c r="A5" s="5" t="s">
         <v>17</v>
       </c>
       <c r="B5" s="23" t="s">
         <v>18</v>
       </c>
-      <c r="C5" s="24" t="s">
+      <c r="C5" s="25" t="s">
         <v>19</v>
       </c>
-      <c r="D5" s="26" t="s">
+      <c r="D5" s="25" t="s">
         <v>20</v>
       </c>
       <c r="E5" s="16">
@@ -1066,17 +1049,17 @@
       </c>
       <c r="F5" s="10"/>
     </row>
-    <row r="6" spans="1:6" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" ht="58.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B6" s="27" t="s">
+      <c r="B6" s="26" t="s">
         <v>22</v>
       </c>
-      <c r="C6" s="28" t="s">
+      <c r="C6" s="27" t="s">
         <v>23</v>
       </c>
-      <c r="D6" s="29" t="s">
+      <c r="D6" s="28" t="s">
         <v>24</v>
       </c>
       <c r="E6" s="17">
@@ -1084,17 +1067,17 @@
       </c>
       <c r="F6" s="6"/>
     </row>
-    <row r="7" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="s">
         <v>25</v>
       </c>
       <c r="B7" s="20" t="s">
         <v>26</v>
       </c>
-      <c r="C7" s="33" t="s">
+      <c r="C7" s="32" t="s">
         <v>28</v>
       </c>
-      <c r="D7" s="30" t="s">
+      <c r="D7" s="29" t="s">
         <v>29</v>
       </c>
       <c r="E7" s="15">
@@ -1102,17 +1085,17 @@
       </c>
       <c r="F7" s="9"/>
     </row>
-    <row r="8" spans="1:6" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" ht="58.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="B8" s="27" t="s">
+      <c r="B8" s="26" t="s">
         <v>27</v>
       </c>
-      <c r="C8" s="31" t="s">
+      <c r="C8" s="30" t="s">
         <v>30</v>
       </c>
-      <c r="D8" s="32" t="s">
+      <c r="D8" s="31" t="s">
         <v>31</v>
       </c>
       <c r="E8" s="18">
@@ -1120,10 +1103,10 @@
       </c>
       <c r="F8" s="12"/>
     </row>
-    <row r="9" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="34"/>
-      <c r="B9" s="34"/>
-      <c r="C9" s="35"/>
+    <row r="9" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="33"/>
+      <c r="B9" s="33"/>
+      <c r="C9" s="34"/>
       <c r="D9" s="19" t="s">
         <v>32</v>
       </c>
@@ -1141,6 +1124,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <lcf76f155ced4ddcb4097134ff3c332f xmlns="3428842a-2b14-49d3-833a-e9aefe8ba0bd">
@@ -1149,15 +1141,6 @@
     <TaxCatchAll xmlns="bfb2d5dc-fc7e-4f04-865a-06cd3bc174ae" xsi:nil="true"/>
   </documentManagement>
 </p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1338,20 +1321,20 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3C4F2778-A5F1-4107-9540-9C24027C94C2}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{93DAC07D-A281-4813-AD13-2C2E6758C420}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
     <ds:schemaRef ds:uri="3428842a-2b14-49d3-833a-e9aefe8ba0bd"/>
     <ds:schemaRef ds:uri="bfb2d5dc-fc7e-4f04-865a-06cd3bc174ae"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3C4F2778-A5F1-4107-9540-9C24027C94C2}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
